--- a/EC10.0Client Datasheet.xlsx
+++ b/EC10.0Client Datasheet.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QTP_EC10\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E4CB665-EE8B-4A0B-9642-B85EE56D95A7}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="16470" windowHeight="9810" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="16470" windowHeight="9810" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DEV" sheetId="1" r:id="rId1"/>
@@ -25,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="194">
   <si>
     <t>TestName</t>
   </si>
@@ -174,9 +168,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>Auto同事聊天群</t>
-  </si>
-  <si>
     <t>管理员</t>
   </si>
   <si>
@@ -186,30 +177,6 @@
     <t>同事讨论组Auto</t>
   </si>
   <si>
-    <t>EC主界面_销售助手_正常新建邮件计划_验证右下角弹窗_001</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>EC主界面_销售助手_正常新建QQ计划_验证右下角弹窗_001</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>EC主界面_销售助手_正常新建电话计划_验证右下角弹窗_001</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>EC主界面_销售助手_正常新建定时计划_验证右下角弹窗_001</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>EC主界面_销售助手_正常新建微信计划_验证可成功新建_001</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>EC主界面_销售助手_正常新建短信计划_验证可成功新建_001</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>客户姓名</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -259,10 +226,6 @@
   </si>
   <si>
     <t>启动EC_主面板_系统设置_取消勾选记住密码_保存关闭设置_008</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>登陆页面_有效账户密码直接登录_注销登陆_002</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -832,10 +795,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>清理环境_启动EC10进程_001</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>"C:\Program Files (x86)\EC 10.0\Bin\EC.exe"</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -852,15 +811,52 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>003_EC主界面_创建EC群_正常完成创建</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <t>004_EC主界面_创建讨论组_正常完成创建并退出</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>003_EC主界面_创建EC群_正常完成创建并退出</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>001_清理环境_启动EC10进程</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>002_登陆页面_有效账户密码直接登录</t>
+  </si>
+  <si>
+    <t>caishifu</t>
+  </si>
+  <si>
+    <t>005_EC主界面_销售助手_正常新建电话计划_验证右下角弹窗</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>006_EC主界面_销售助手_正常新建短信计划</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>007_EC主界面_销售助手_正常新建QQ计划</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>008_EC主界面_销售助手_正常新建邮件计划_验证右下角弹窗</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>009_EC主界面_销售助手_正常新建微信计划_验证右下角弹窗</t>
+  </si>
+  <si>
+    <t>010_EC主界面_销售助手_正常新建定时提醒_验证右下角弹窗</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1032,82 +1028,14 @@
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="常规 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="常规 4" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="常规 4 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="常规 2" xfId="3"/>
+    <cellStyle name="常规 3" xfId="2"/>
+    <cellStyle name="常规 4" xfId="4"/>
+    <cellStyle name="常规 4 2" xfId="5"/>
     <cellStyle name="好" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1127,7 +1055,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CEEACA"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1447,14 +1375,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView showZeros="0" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="32.625" customWidth="1"/>
     <col min="2" max="2" width="19.375" customWidth="1"/>
@@ -1469,7 +1397,7 @@
     <col min="17" max="17" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="15">
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1528,7 +1456,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -1545,7 +1473,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
       <c r="E3" t="s">
         <v>22</v>
       </c>
@@ -1561,17 +1489,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Y110"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Y111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B53" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B62" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A59" sqref="A59"/>
+      <selection pane="bottomRight" activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="59.125" customWidth="1"/>
     <col min="2" max="2" width="12.625" style="3" customWidth="1"/>
@@ -1584,18 +1512,18 @@
     <col min="22" max="22" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="2" customFormat="1" ht="15">
+    <row r="1" spans="1:25" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>23</v>
@@ -1619,55 +1547,55 @@
         <v>41</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="P1" s="8" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="Q1" s="8" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="R1" s="8" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="S1" s="8" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="T1" s="8" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="U1" s="8" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="V1" s="14" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="W1" s="14" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="X1" s="14" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="Y1" s="14" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" s="2" customFormat="1" ht="15">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B2" s="4"/>
       <c r="E2" s="17" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="F2" s="3">
         <v>123456</v>
@@ -1682,13 +1610,13 @@
       <c r="O2" s="8"/>
       <c r="P2" s="8"/>
     </row>
-    <row r="3" spans="1:25" s="2" customFormat="1" ht="15">
+    <row r="3" spans="1:25" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B3" s="4"/>
       <c r="E3" s="13" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="F3" s="3">
         <v>888888</v>
@@ -1703,13 +1631,13 @@
       <c r="O3" s="8"/>
       <c r="P3" s="8"/>
     </row>
-    <row r="4" spans="1:25" s="2" customFormat="1" ht="15">
+    <row r="4" spans="1:25" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B4" s="4"/>
       <c r="E4" s="13" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="8"/>
@@ -1722,9 +1650,9 @@
       <c r="O4" s="8"/>
       <c r="P4" s="8"/>
     </row>
-    <row r="5" spans="1:25" s="2" customFormat="1" ht="15">
+    <row r="5" spans="1:25" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B5" s="4"/>
       <c r="E5" s="4"/>
@@ -1741,13 +1669,13 @@
       <c r="O5" s="8"/>
       <c r="P5" s="8"/>
     </row>
-    <row r="6" spans="1:25" s="2" customFormat="1" ht="15">
+    <row r="6" spans="1:25" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B6" s="4"/>
       <c r="E6" s="13" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="F6" s="3">
         <v>888888</v>
@@ -1762,7 +1690,7 @@
       <c r="O6" s="8"/>
       <c r="P6" s="8"/>
     </row>
-    <row r="7" spans="1:25" s="2" customFormat="1" ht="15">
+    <row r="7" spans="1:25" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
       <c r="B7" s="4"/>
       <c r="E7" s="4"/>
@@ -1777,13 +1705,13 @@
       <c r="O7" s="8"/>
       <c r="P7" s="8"/>
     </row>
-    <row r="8" spans="1:25" s="2" customFormat="1" ht="28.5">
+    <row r="8" spans="1:25" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B8" s="4"/>
       <c r="D8" s="17" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -1797,917 +1725,927 @@
       <c r="O8" s="8"/>
       <c r="P8" s="8"/>
     </row>
-    <row r="9" spans="1:25" ht="13.5" customHeight="1">
+    <row r="9" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="11" t="s">
-        <v>65</v>
+        <v>186</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>25</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="F9" s="3">
         <v>888888</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A10" s="11" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="F10" s="3">
         <v>888888</v>
       </c>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A11" s="11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A12" s="11" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="F12" s="3">
         <v>888888</v>
       </c>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A13" s="11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A14" s="11" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="F14" s="3">
         <v>888888</v>
       </c>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A15" s="11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" ht="13.5" customHeight="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="5" t="s">
         <v>26</v>
       </c>
       <c r="E16" s="7"/>
     </row>
-    <row r="17" spans="1:21" ht="13.5" customHeight="1">
+    <row r="17" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E17" s="7"/>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A19" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A21" s="5"/>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A22" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="G22" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>75</v>
+      </c>
+      <c r="R22" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="S22" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="T22" t="s">
+        <v>76</v>
+      </c>
+      <c r="U22" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A23" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A24" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A25" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A26" s="11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A27" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A28" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A29" s="11"/>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A30" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="G30" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A31" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="G22" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>83</v>
-      </c>
-      <c r="R22" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="S22" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="T22" t="s">
-        <v>84</v>
-      </c>
-      <c r="U22" s="9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21">
-      <c r="A23" s="11" t="s">
+      <c r="G31" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A32" s="11"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A33" s="11" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="24" spans="1:21">
-      <c r="A24" s="11" t="s">
+      <c r="G33" t="s">
+        <v>80</v>
+      </c>
+      <c r="K33" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A34" s="11" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="25" spans="1:21">
-      <c r="A25" s="11" t="s">
+      <c r="K34" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A35" s="11" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21">
-      <c r="A26" s="11" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21">
-      <c r="A27" s="11" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21">
-      <c r="A28" s="11" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21">
-      <c r="A29" s="11"/>
-    </row>
-    <row r="30" spans="1:21">
-      <c r="A30" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="G30" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21">
-      <c r="A31" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="G31" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21">
-      <c r="A32" s="11"/>
-    </row>
-    <row r="33" spans="1:13">
-      <c r="A33" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="G33" t="s">
-        <v>88</v>
-      </c>
-      <c r="K33" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
-      <c r="A34" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="K34" s="10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
-      <c r="A35" s="11" t="s">
-        <v>102</v>
       </c>
       <c r="K35">
         <v>14044</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A36" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="K36" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A37" s="11"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A38" s="11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A39" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A40" s="11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A41" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A42" s="11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A43" s="11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A44" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="M44" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A45" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="K36" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
-      <c r="A37" s="11"/>
-    </row>
-    <row r="38" spans="1:13">
-      <c r="A38" s="11" t="s">
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A46" s="11" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
-      <c r="A39" s="11" t="s">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A47" s="11" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
-      <c r="A40" s="11" t="s">
+      <c r="G47" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A48" s="11" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
-      <c r="A41" s="11" t="s">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A49" s="11" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
-      <c r="A42" s="11" t="s">
+      <c r="K49" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A50" s="11" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
-      <c r="A43" s="11" t="s">
+      <c r="K50" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A51" s="11" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="44" spans="1:13">
-      <c r="A44" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="M44" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
-      <c r="A45" s="11" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
-      <c r="A46" s="11" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
-      <c r="A47" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="G47" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
-      <c r="A48" s="11" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19">
-      <c r="A49" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="K49" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19">
-      <c r="A50" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="K50" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19">
-      <c r="A51" s="11" t="s">
-        <v>117</v>
-      </c>
       <c r="G51" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K51" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A52" s="11"/>
     </row>
-    <row r="53" spans="1:19" ht="13.5" customHeight="1">
+    <row r="53" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="11" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B53" s="6"/>
       <c r="E53" s="7"/>
       <c r="G53" s="12" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="54" spans="1:19">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A54" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="55" spans="1:19">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A55" s="5" t="s">
         <v>36</v>
       </c>
       <c r="E55"/>
       <c r="F55"/>
       <c r="K55" s="10" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="L55" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="56" spans="1:19">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A56" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="57" spans="1:19">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A57" s="5"/>
     </row>
-    <row r="58" spans="1:19">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A58" s="5" t="s">
         <v>37</v>
       </c>
       <c r="E58"/>
       <c r="F58"/>
     </row>
-    <row r="59" spans="1:19">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A59" s="5" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="H59" s="16" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="I59" s="16" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="J59" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K59" s="15" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="60" spans="1:19">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A60" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="H60" s="16"/>
+      <c r="I60" s="16"/>
+      <c r="K60" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="L60" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A61" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="H60" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="61" spans="1:19">
-      <c r="A61" s="5"/>
-    </row>
-    <row r="62" spans="1:19">
-      <c r="A62" s="5" t="s">
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A62" s="5"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A63" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="K62" s="10"/>
-    </row>
-    <row r="63" spans="1:19">
-      <c r="A63" s="5"/>
       <c r="K63" s="10"/>
     </row>
-    <row r="64" spans="1:19">
-      <c r="A64" s="5" t="s">
-        <v>119</v>
-      </c>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A64" s="5"/>
       <c r="K64" s="10"/>
-      <c r="R64" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="S64" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="65" spans="1:24">
-      <c r="A65" s="5"/>
+    </row>
+    <row r="65" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A65" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="K65" s="10"/>
-    </row>
-    <row r="66" spans="1:24">
-      <c r="A66" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B66" s="6"/>
-      <c r="E66"/>
-      <c r="F66"/>
-      <c r="M66" t="s">
-        <v>87</v>
-      </c>
-      <c r="N66" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="O66" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="P66" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="67" spans="1:24">
+      <c r="R65" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="S65" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A66" s="5"/>
+      <c r="K66" s="10"/>
+    </row>
+    <row r="67" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A67" s="5" t="s">
-        <v>47</v>
+        <v>188</v>
       </c>
       <c r="E67"/>
       <c r="F67"/>
       <c r="M67" t="s">
-        <v>87</v>
+        <v>187</v>
       </c>
       <c r="O67" s="9" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="P67" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="68" spans="1:24">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A68" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E68"/>
-      <c r="F68"/>
+        <v>189</v>
+      </c>
       <c r="M68" t="s">
-        <v>87</v>
+        <v>187</v>
       </c>
       <c r="O68" s="9" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="P68" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="69" spans="1:24">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A69" s="5" t="s">
-        <v>49</v>
+        <v>190</v>
       </c>
       <c r="E69"/>
       <c r="F69"/>
       <c r="M69" t="s">
-        <v>87</v>
+        <v>187</v>
       </c>
       <c r="O69" s="9" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="P69" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="70" spans="1:24">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A70" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B70" s="6"/>
+      <c r="E70"/>
+      <c r="F70"/>
+      <c r="M70" t="s">
+        <v>187</v>
+      </c>
+      <c r="N70" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="O70" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="M70" t="s">
-        <v>87</v>
-      </c>
-      <c r="O70" s="9" t="s">
-        <v>57</v>
-      </c>
       <c r="P70" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="71" spans="1:24">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A71" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="M71" t="s">
+        <v>187</v>
+      </c>
+      <c r="O71" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="P71" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="M71" t="s">
-        <v>87</v>
-      </c>
-      <c r="O71" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="P71" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="72" spans="1:24">
-      <c r="A72" s="5"/>
-    </row>
-    <row r="73" spans="1:24">
+    </row>
+    <row r="72" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A72" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="E72"/>
+      <c r="F72"/>
+      <c r="M72" t="s">
+        <v>187</v>
+      </c>
+      <c r="O72" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="P72" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A73" s="5"/>
     </row>
-    <row r="74" spans="1:24">
-      <c r="A74" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="E74" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="F74">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A74" s="5"/>
+    </row>
+    <row r="75" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A75" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E75" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="F75">
         <v>888888</v>
       </c>
     </row>
-    <row r="75" spans="1:24">
-      <c r="A75" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="V75">
-        <v>654321</v>
-      </c>
-      <c r="W75">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="76" spans="1:24">
+    <row r="76" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A76" s="5" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="V76">
         <v>654321</v>
       </c>
       <c r="W76">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A77" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="V77">
+        <v>654321</v>
+      </c>
+      <c r="W77">
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:24">
-      <c r="A77" s="5"/>
-    </row>
-    <row r="78" spans="1:24">
-      <c r="A78" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="79" spans="1:24">
-      <c r="A79" s="5"/>
-    </row>
-    <row r="80" spans="1:24">
-      <c r="A80" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="G80" t="s">
-        <v>87</v>
-      </c>
-      <c r="V80" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="W80">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A78" s="5"/>
+    </row>
+    <row r="79" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A79" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A80" s="5"/>
+    </row>
+    <row r="81" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A81" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G81" t="s">
+        <v>79</v>
+      </c>
+      <c r="V81" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="W81">
         <v>1</v>
       </c>
-      <c r="X80" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="81" spans="1:25">
-      <c r="A81" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="G81" t="s">
-        <v>130</v>
-      </c>
-      <c r="W81">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="82" spans="1:25">
+      <c r="X81" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="82" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A82" s="5" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="G82" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="W82">
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:25">
+    <row r="83" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A83" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="G83" s="16" t="s">
-        <v>134</v>
+        <v>125</v>
+      </c>
+      <c r="G83" t="s">
+        <v>124</v>
       </c>
       <c r="W83">
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:25">
+    <row r="84" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A84" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="G84" t="s">
-        <v>135</v>
+        <v>66</v>
+      </c>
+      <c r="G84" s="16" t="s">
+        <v>126</v>
       </c>
       <c r="W84">
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:25">
-      <c r="A85" s="5"/>
-    </row>
-    <row r="86" spans="1:25">
-      <c r="A86" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="V86">
+    <row r="85" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A85" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G85" t="s">
+        <v>127</v>
+      </c>
+      <c r="W85">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A86" s="5"/>
+    </row>
+    <row r="87" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A87" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="V87">
         <v>98765432</v>
-      </c>
-      <c r="W86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:25">
-      <c r="A87" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="V87" s="15" t="s">
-        <v>138</v>
       </c>
       <c r="W87">
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:25">
+    <row r="88" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A88" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="V88">
-        <v>99998888</v>
+        <v>131</v>
+      </c>
+      <c r="V88" s="15" t="s">
+        <v>130</v>
       </c>
       <c r="W88">
         <v>1</v>
       </c>
-      <c r="X88" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="89" spans="1:25">
+    </row>
+    <row r="89" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A89" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="V89" s="15" t="s">
-        <v>143</v>
+        <v>132</v>
+      </c>
+      <c r="V89">
+        <v>99998888</v>
       </c>
       <c r="W89">
         <v>1</v>
       </c>
-      <c r="X89" s="16" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="90" spans="1:25">
+      <c r="X89" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="90" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A90" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="V90">
-        <v>88887777</v>
+        <v>134</v>
+      </c>
+      <c r="V90" s="15" t="s">
+        <v>135</v>
       </c>
       <c r="W90">
         <v>1</v>
       </c>
-      <c r="Y90" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="91" spans="1:25">
+      <c r="X90" s="16" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="91" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A91" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="V91" s="15" t="s">
-        <v>147</v>
+        <v>138</v>
+      </c>
+      <c r="V91">
+        <v>88887777</v>
       </c>
       <c r="W91">
         <v>1</v>
       </c>
       <c r="Y91" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="92" spans="1:25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="92" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A92" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="V92">
-        <v>66661111</v>
+        <v>140</v>
+      </c>
+      <c r="V92" s="15" t="s">
+        <v>139</v>
       </c>
       <c r="W92">
         <v>1</v>
       </c>
-      <c r="X92" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="93" spans="1:25">
+      <c r="Y92" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="93" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A93" s="5" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="V93">
-        <v>654321</v>
+        <v>66661111</v>
       </c>
       <c r="W93">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:25">
+      <c r="X93" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="94" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A94" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="C94" t="s">
-        <v>76</v>
-      </c>
-      <c r="V94" s="15" t="s">
-        <v>151</v>
+        <v>142</v>
+      </c>
+      <c r="V94">
+        <v>654321</v>
       </c>
       <c r="W94">
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:25">
-      <c r="A95" s="5"/>
-    </row>
-    <row r="96" spans="1:25">
-      <c r="A96" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="V96">
+    <row r="95" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A95" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C95" t="s">
+        <v>68</v>
+      </c>
+      <c r="V95" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="W95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A96" s="5"/>
+    </row>
+    <row r="97" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A97" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="V97">
         <v>99998888</v>
-      </c>
-      <c r="W96">
-        <v>1</v>
-      </c>
-      <c r="X96" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="97" spans="1:24">
-      <c r="A97" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="V97" s="15" t="s">
-        <v>154</v>
       </c>
       <c r="W97">
         <v>1</v>
       </c>
       <c r="X97" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="98" spans="1:24">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="98" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A98" s="5" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="V98" s="15" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="W98">
         <v>1</v>
       </c>
       <c r="X98" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="99" spans="1:24">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="99" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A99" s="5" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="V99" s="15" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="W99">
         <v>1</v>
       </c>
       <c r="X99" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="100" spans="1:24">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="100" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A100" s="5" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="V100" s="15" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="W100">
         <v>1</v>
       </c>
       <c r="X100" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="101" spans="1:24">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="101" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A101" s="5" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="V101" s="15" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="W101">
         <v>1</v>
       </c>
-      <c r="X101" s="16" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="102" spans="1:24">
+      <c r="X101" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="102" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A102" s="5" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="V102" s="15" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="W102">
         <v>1</v>
       </c>
       <c r="X102" s="16" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="103" spans="1:24">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="103" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A103" s="5" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="V103" s="15" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="W103">
         <v>1</v>
       </c>
       <c r="X103" s="16" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="104" spans="1:24">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="104" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A104" s="5" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="V104" s="15" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="W104">
         <v>1</v>
       </c>
       <c r="X104" s="16" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="105" spans="1:24">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="105" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A105" s="5" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="V105" s="15" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="W105">
         <v>1</v>
       </c>
       <c r="X105" s="16" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="106" spans="1:24">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="106" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A106" s="5" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="V106" s="15" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="W106">
         <v>1</v>
       </c>
       <c r="X106" s="16" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="107" spans="1:24">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="107" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A107" s="5" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="V107" s="15" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="W107">
         <v>1</v>
       </c>
       <c r="X107" s="16" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="108" spans="1:24">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="108" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A108" s="5" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="V108" s="15" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="W108">
         <v>1</v>
       </c>
       <c r="X108" s="16" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="109" spans="1:24">
-      <c r="A109" s="5"/>
-    </row>
-    <row r="110" spans="1:24">
-      <c r="A110" s="5" t="s">
-        <v>181</v>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="109" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A109" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="V109" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="W109">
+        <v>1</v>
+      </c>
+      <c r="X109" s="16" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="110" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A110" s="5"/>
+    </row>
+    <row r="111" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A111" s="5" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -2718,19 +2656,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2">
+    <row r="1" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B1" s="1"/>
     </row>
   </sheetData>

--- a/EC10.0Client Datasheet.xlsx
+++ b/EC10.0Client Datasheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="195">
   <si>
     <t>TestName</t>
   </si>
@@ -850,6 +850,9 @@
   <si>
     <t>010_EC主界面_销售助手_正常新建定时提醒_验证右下角弹窗</t>
     <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>011_EC主界面_销售助手_主要操作入口验证</t>
   </si>
 </sst>
 </file>
@@ -1496,7 +1499,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B62" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B69" sqref="B69"/>
+      <selection pane="bottomRight" activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2225,7 +2228,9 @@
       </c>
     </row>
     <row r="73" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A73" s="5"/>
+      <c r="A73" s="5" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="74" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A74" s="5"/>
